--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason\Desktop\School\College\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1950DC-D2A4-40A5-83CD-365A4D6512E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C901B2-8204-4312-ABE7-B32B1F26D98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Instructions</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>As an OWNER I want to be able to modify products so that I can change the price, quantity available, name, etc of my items.</t>
-  </si>
-  <si>
-    <t>**Given** I am an owner **when** I go to the product management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see all of the fields I can modify, a save button, and a delete button</t>
   </si>
   <si>
     <t>**Given** I am a buyer **when** I go to the inventory management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see an error pop up and be redirected to the login page.</t>
@@ -209,22 +206,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; does not redirect to inventory management page - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting Merge of inventoryPage Branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Mason Bausenwein; March 16th; does not redirect to product catalog - </t>
     </r>
     <r>
@@ -243,58 +224,13 @@
     <t>Mason Bausenwein; March 16th; I am assuming data to pertain to admin status and shopping cart information.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; no product information page on main - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting Merge of inventoryPage Branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; no product management page on main - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting Merge of inventoryPage Branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; no inventory management page on main - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting Merge of inventoryPage Branch</t>
-    </r>
-  </si>
-  <si>
     <t>2225-swen-261-06-h-quackers</t>
   </si>
   <si>
     <t>**Given** I am an owner **when** I click the remove button **then** I expect the product to be deleted and to see a success notification if successful or an error notification if not</t>
+  </si>
+  <si>
+    <t>**Given** I am an owner **when** I go to the product management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see all of the fields I can modify and a save button</t>
   </si>
 </sst>
 </file>
@@ -820,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -845,9 +781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -889,10 +825,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -902,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -915,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -928,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -941,10 +877,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -954,10 +890,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -969,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -981,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -994,10 +930,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1009,10 +945,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1022,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1034,282 +970,282 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E33" s="7"/>
     </row>

--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason\Desktop\School\College\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C901B2-8204-4312-ABE7-B32B1F26D98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D21938-9F0C-4D6C-BB78-20072397122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="10590" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Instructions</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>**Given** I am logged in as a owner and I am on a browser **when** I submit a get request to http://localhost:8080/shoppingcart **then** I expect to see an error pop up and be redirected to the inventory management page.</t>
-  </si>
-  <si>
-    <t>As a BUYER I want to BE ABLE TO VIEW THE PRODUCT PAGE so that I CAN VIEW PRODUCTS AND ADD THEM TO MY CART.</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in a buyer and I am on a browser **when** I submit a get request to http://localhost:8080/products **then** I expect to see a list of products.</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in as an owner (or I am not logged in) and I am on a browser **when** I submit a get request to http://localhost:8080/products **then** I expect to be redirected to the login page.</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in a buyer and I am on a browser **when** I type in the search box **then** I expect to see the list of products change based on my query.</t>
   </si>
   <si>
     <t>Pass</t>
@@ -205,22 +193,6 @@
     <t>Mason Bausenwein; March 16th</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; does not redirect to product catalog - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting completion of catalog page</t>
-    </r>
-  </si>
-  <si>
     <t>Mason Bausenwein; March 16th; I am assuming data to pertain to admin status and shopping cart information.</t>
   </si>
   <si>
@@ -231,13 +203,64 @@
   </si>
   <si>
     <t>**Given** I am an owner **when** I go to the product management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see all of the fields I can modify and a save button</t>
+  </si>
+  <si>
+    <t>As an BUYER I want to SEE PRODUCTS ON THE CATALOG PAGE so that I ADD THEM MY SHOPPING CART.</t>
+  </si>
+  <si>
+    <t>**Given** I am an buyer and I want to browse the products **when** I go to the catalog page (http://localhost:4200/catalog/) **then** I expect to see a list of products that I can add to cart/see details</t>
+  </si>
+  <si>
+    <t>**Given** I am an buyer and I want to add one product into my shopping cart **when** I click Add to Cart button **then** I expect to a confirm notification</t>
+  </si>
+  <si>
+    <t>**Given** I am an buyer and I want to see my shopping cart **when** I click Go to Cart button **then** I expect to go to http://localhost:4200/cart</t>
+  </si>
+  <si>
+    <t>As a BUYER I want to BE ABLE TO SEARCH THE PRODUCT PAGE so that I CAN VIEW PRODUCTS WITH SPECIFIC NAME.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer and I want to search a product with specific name **when** I entered the key work to the search bar **then** I expect to see a list of product names that match the keyword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I am a buyer and I want to see the product detail **when** I click the result name **then** I expect to go to the product detail page. </t>
+  </si>
+  <si>
+    <t>As a BUYER I want to SEE THE PRODUCT DETAILS so that I CAN LEARN MORE ABOUT THE PRODUCT.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer and I want to see product detail **when** I click the Detail button **then** I expect to see a product details page.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer and I want to add products to shopping cart **when** I set the quantity and click the Add to Cart button **then** I expect to see a confirm notification.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer and I want to go back to the catalog page **when** I click the Go Back button **then** I expect to go to http://localhost:4200/catalog</t>
+  </si>
+  <si>
+    <t>**Given** I am an owner or not logged in **when** I go to http://localhost:4200/catalog/:id **then** I expect to be redirected to the login page and told I am not authorized</t>
+  </si>
+  <si>
+    <t>As a BUYER I want to BE ABLE TO ADD PRODUCTS TO SHOPPING CART so that I CAN CHECKOUT.</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in a buyer and I am on catalog page **when** I click on the add to cart button **then** I expect to add one product into my shopping cart.</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in a buyer and I am on detail page **when** I set the quantity and click on the add to cart button **then** I expect to add the quantity of products I want to my cart.</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as an owner (or I am not logged in) and I am on a browser **when** I submit a get request to http://localhost:8080/catalog **then** I expect to be redirected to the login page.</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; March 18th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,12 +282,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -319,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,9 +361,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -779,11 +793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F589"/>
+  <dimension ref="A1:F599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -797,7 +811,7 @@
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,18 +831,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -838,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -851,10 +865,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -864,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -877,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -890,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -905,10 +919,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -917,23 +931,23 @@
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -945,23 +959,23 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -970,13 +984,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -985,23 +999,23 @@
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1013,10 +1027,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1025,23 +1039,23 @@
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
-        <v>56</v>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1053,240 +1067,332 @@
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>36</v>
+    <row r="23" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
+    <row r="24" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
-        <v>41</v>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+      <c r="C42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -3473,9 +3579,49 @@
       <c r="C589" s="7"/>
       <c r="E589" s="7"/>
     </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C590" s="7"/>
+      <c r="E590" s="7"/>
+    </row>
+    <row r="591" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C591" s="7"/>
+      <c r="E591" s="7"/>
+    </row>
+    <row r="592" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C592" s="7"/>
+      <c r="E592" s="7"/>
+    </row>
+    <row r="593" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C593" s="7"/>
+      <c r="E593" s="7"/>
+    </row>
+    <row r="594" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C594" s="7"/>
+      <c r="E594" s="7"/>
+    </row>
+    <row r="595" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C595" s="7"/>
+      <c r="E595" s="7"/>
+    </row>
+    <row r="596" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C596" s="7"/>
+      <c r="E596" s="7"/>
+    </row>
+    <row r="597" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C597" s="7"/>
+      <c r="E597" s="7"/>
+    </row>
+    <row r="598" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C598" s="7"/>
+      <c r="E598" s="7"/>
+    </row>
+    <row r="599" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C599" s="7"/>
+      <c r="E599" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E589 C2:C589">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E599 C2:C599">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3483,7 +3629,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F589 D2:D589">
+  <conditionalFormatting sqref="F2:F599 D2:D599">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3492,7 +3638,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E589 C2:C589" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26 C28:C599 E2:E599" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason\Desktop\School\College\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D21938-9F0C-4D6C-BB78-20072397122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE1AEE-E29C-4D3E-9C24-3F83D7ACDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="10590" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>Instructions</t>
   </si>
@@ -126,12 +126,6 @@
     <t>As a BUYER I want to BE ABLE TO VIEW MY SHOPPING CART so that ADD/REMOVE ITEMS FROM MY CART AND BUY THEM.</t>
   </si>
   <si>
-    <t>**Given** I am logged in as a buyer and I am on a browser **when** I click the shopping cart button or submit a get request to http://localhost:8080/shoppingcart **then** I expect to see my shopping cart.</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in as a owner and I am on a browser **when** I submit a get request to http://localhost:8080/shoppingcart **then** I expect to see an error pop up and be redirected to the inventory management page.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -174,22 +168,6 @@
     <t>Mason Bausenwein; March 16th; Will not be implemented in Sprint 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mason Bausenwein; March 16th; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFE6D00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaiting Implementation</t>
-    </r>
-  </si>
-  <si>
     <t>Mason Bausenwein; March 16th</t>
   </si>
   <si>
@@ -254,13 +232,37 @@
   </si>
   <si>
     <t>Mason Bausenwein; March 18th</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer and I am on a browser **when** I click the shopping cart button or submit a get request to http://localhost:8080/cart **then** I expect to see my shopping cart (items - name, price, quantity in cart, cart - price total).</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a owner or not logged in **when** I go to http://localhost:8080/cart **then** I expect to see an error pop up and be redirected to the login page</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I click the remove button **then** I expect the correct amount of the item corresponding to the remove button to be removed</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I click the back button **then** I expect to be directed back to https://localhost:8080/catalog or http://localhost:8080/catalog/:id (use location.back -- need to inject Location in the constructor)</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer and have items in my cart **when** I click the clear cart button **then** I expect my cart to be cleared</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I have no items in my cart **then** I expect the checkout button to be hidden</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer and don't have items in my cart **when** I go to the cart page **then** I expect the clear button to be hidden</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; March 19th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,14 +287,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFE6D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -770,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,11 +787,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F599"/>
+  <dimension ref="A1:F604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -839,10 +833,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -852,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -865,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -878,10 +872,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -891,10 +885,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -904,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -919,10 +913,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -931,10 +925,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -944,10 +938,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -959,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -972,10 +966,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -984,13 +978,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -999,10 +993,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1012,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1027,10 +1021,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1039,23 +1033,23 @@
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1064,355 +1058,395 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
+    <row r="20" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="21" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>68</v>
+    <row r="24" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
+    <row r="25" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>59</v>
+    <row r="26" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
+    <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="2" t="s">
-        <v>63</v>
+    <row r="29" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
-        <v>67</v>
+    <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>40</v>
+    <row r="40" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
+    <row r="41" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C44" s="7"/>
+    <row r="44" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="7"/>
+    <row r="45" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="7"/>
+    <row r="46" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="7"/>
+    <row r="48" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
@@ -3619,9 +3653,29 @@
       <c r="C599" s="7"/>
       <c r="E599" s="7"/>
     </row>
+    <row r="600" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C600" s="7"/>
+      <c r="E600" s="7"/>
+    </row>
+    <row r="601" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C601" s="7"/>
+      <c r="E601" s="7"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C602" s="7"/>
+      <c r="E602" s="7"/>
+    </row>
+    <row r="603" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C603" s="7"/>
+      <c r="E603" s="7"/>
+    </row>
+    <row r="604" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C604" s="7"/>
+      <c r="E604" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E599 C2:C599">
+  <conditionalFormatting sqref="E2:E604 C2:C604">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3629,7 +3683,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F599 D2:D599">
+  <conditionalFormatting sqref="F2:F604 D2:D604">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3638,7 +3692,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26 C28:C599 E2:E599" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 C33:C604 E2:E604" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason\Desktop\School\College\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason Bausenwein\Desktop\School\2023 Spring Semester\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE1AEE-E29C-4D3E-9C24-3F83D7ACDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DADB51-9220-4392-9695-0A1E8720DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="10590" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>Instructions</t>
   </si>
@@ -153,15 +153,6 @@
     <t>As a CUSTOMER I want to SEE A RECEIPT OF THE ITEMS I PURCHASED so that I CAN MAKE SURE I BOUGHT EVERYTHING I WANT</t>
   </si>
   <si>
-    <t>**Given** I am on the shopping cart page **when** I click checkout **then** I expect to be redirected to this page.</t>
-  </si>
-  <si>
-    <t>**Given** all of the items I wanted were in the inventory **when** I clicked checkout **then** I expect to see a success message with the items I bought and their total price</t>
-  </si>
-  <si>
-    <t>**Given** all of the items I wanted were NOT in the inventory **when** I clicked checkout **then** I expect to see an error message stating what items were unavailable</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -256,6 +247,90 @@
   </si>
   <si>
     <t>Mason Bausenwein; March 19th</t>
+  </si>
+  <si>
+    <t>**Given** all of the items I wanted were NOT in the inventory (cart is deemed invalid but validation endpoint) **when** I clicked checkout **then** I expect to see an error message stating what items were unavailable</t>
+  </si>
+  <si>
+    <t>**Given** all of the items I wanted were in the inventory (cart is deemed valid by validation endpoint) **when** I clicked checkout **then** I expect to see a success message with the items I bought and their total price (make this a notification and redirect to catalog)</t>
+  </si>
+  <si>
+    <t>**Given** I am on the shopping cart page **when** I click checkout **then** I expect to be redirected to this page (should be able to enter credit/debit card details).</t>
+  </si>
+  <si>
+    <t>As a USER I want to GO TO THE LOGIN PAGE AND SEE A NICE DESIGN so that I HAVE A GOOD EXPERIENCE.</t>
+  </si>
+  <si>
+    <t>**Given** I go to the estore website **when** the page loads **then** I expect to see a centered login form.</t>
+  </si>
+  <si>
+    <t>**Given** I am on the login page **when** I submit an invalid login request **then** I expect to see errors as to what went wrong (i.e. no username/password provided or invalid credentials).</t>
+  </si>
+  <si>
+    <t>**Given** I am on the login page **when** I submit a valid login request **then** I expect to be redirected to the proper page (catalog for customers, inventory management for admins) and see a snackbar success message.</t>
+  </si>
+  <si>
+    <t>As an OWNER I want the catalog/inventory management pages to look nice and be easy to use so that I and my customers do not get confused and have a nice experience.</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I go to the catalog page **then** I expect to see all of the items listed in boxes with drop shadows. (The boxes should contain the following: name of the duck, price of the duck, and quantity available. There should also be a selector that allows them to add as many ducks to the cart as they like and a view item button)</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I am on the catalog page **then** I expect to see a go-to cart button (use angular material buttons)</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as an owner **when** I go to the inventory management page **then** I expect to see all of the items listed in boxes with drop shadows. (The boxes should contain the following: name of the duck, price of the duck, and quantity available. There should also be a modify button and a remove button)</t>
+  </si>
+  <si>
+    <t>**Given** I am on the inventory management page **when** I click the modify item button on an item **then** I expect to be taken to the modify product page (make this a modal)</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in **when** I am on the catalog/inventory management page **then** I expect all of the items to have pictures that reflect their outfit/color/size properties</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer and have a valid cart **when** I go to the checkout page **then** I expect my payment and shipping information to auto fill</t>
+  </si>
+  <si>
+    <t>As a USER I want to RESET MY PASSWORD so that IF I FORGET IT I CAN STILL ACCESS MY ACCOUNT.</t>
+  </si>
+  <si>
+    <t>**Given** I click the reset password button **when** I have entered a username for an existing account and a strong password **then** I expect to receive a confirmation snackbar</t>
+  </si>
+  <si>
+    <t>**Given** I click the reset password button **when** I have entered a username for an existing account and a weak passowrd **then** I expect to receive an error snackbar saying password too weak (give requirements)</t>
+  </si>
+  <si>
+    <t>**Given** I click the reset password button **when** I have entered a username for an nonexistant account **then** I expect to receive an error snackbar saying account does not exist</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I attempt to access my profile page **then** I expect to see a screen where I can save my payment and shipping information along with a save button</t>
+  </si>
+  <si>
+    <t>**Given** I am on the profile page **when** I attempt to click the change payment information button **then** I expect to see a screen where I can modify my payment information</t>
+  </si>
+  <si>
+    <t>**Given** I am on the profile page **when** I attempt to click the change shipping information button **then** I expect to see a screen where I can modify my shipping information</t>
+  </si>
+  <si>
+    <t>**Given** I am on the payment modification screen **when** I click submit with a valid form (all inputs filled with no form validation errors) **then** I expect to see a success message</t>
+  </si>
+  <si>
+    <t>**Given** I am on the shipping modification screen **when** I click submit with a valid form (all inputs filled with no form validation errors) **then** I expect to see a success message</t>
+  </si>
+  <si>
+    <t>As a BUYER I want to HAVE A CUSTOMIZABLE DUCK PAGE so that I CAN CUSTOMIZE MY OWN DUCK AND ADD IT TO MY SHOPPING CART.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I attempt to access the customize page **then** I expect to see a screen where I can customize my own duck along with a button to add to my cart</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** create my own duck **then** I expect to customize features of my duck such as its name, size, color, and outfit which includes its hat, hand item, and jewelry.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I customize my duck **then** I expect to see an image representation of my customization</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 3rd; This acceptance criteria was not defined during sprint 2, but is being marked as failing for completion of this document</t>
   </si>
 </sst>
 </file>
@@ -745,13 +820,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.83203125" customWidth="1"/>
+    <col min="2" max="2" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="279" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -759,15 +834,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,14 +862,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F604"/>
+  <dimension ref="A1:F607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
@@ -802,10 +877,10 @@
     <col min="4" max="4" width="60" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -836,11 +911,11 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -849,11 +924,11 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -862,11 +937,11 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -875,11 +950,11 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -888,11 +963,11 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -901,11 +976,11 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -916,11 +991,11 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -928,11 +1003,11 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -941,11 +1016,11 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -956,11 +1031,11 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
@@ -969,26 +1044,26 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
@@ -996,11 +1071,11 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>26</v>
@@ -1009,11 +1084,11 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1024,11 +1099,11 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1036,284 +1111,284 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -1321,39 +1396,39 @@
         <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1361,2321 +1436,2493 @@
         <v>37</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>38</v>
+    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="7"/>
+    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="7"/>
+    <row r="50" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="7"/>
+    <row r="51" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="7"/>
+    <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C53" s="7"/>
+    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C54" s="7"/>
+    <row r="54" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C55" s="7"/>
+    <row r="55" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C56" s="7"/>
+    <row r="56" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C57" s="7"/>
+    <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C58" s="7"/>
+    <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C59" s="7"/>
+    <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C60" s="7"/>
+    <row r="60" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C61" s="7"/>
+    <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C62" s="7"/>
+    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C63" s="7"/>
+    <row r="63" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C64" s="7"/>
+    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C65" s="7"/>
+    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C66" s="7"/>
+    <row r="66" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" s="7"/>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" s="7"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" s="7"/>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" s="7"/>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" s="7"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" s="7"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" s="7"/>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196" s="7"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198" s="7"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" s="7"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C201" s="7"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C202" s="7"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203" s="7"/>
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C204" s="7"/>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C205" s="7"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C206" s="7"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C207" s="7"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C208" s="7"/>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="7"/>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" s="7"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C211" s="7"/>
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C212" s="7"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C213" s="7"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C214" s="7"/>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C215" s="7"/>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C216" s="7"/>
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C217" s="7"/>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C218" s="7"/>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" s="7"/>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C221" s="7"/>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C222" s="7"/>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C224" s="7"/>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225" s="7"/>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226" s="7"/>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C227" s="7"/>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C228" s="7"/>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C229" s="7"/>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C230" s="7"/>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C231" s="7"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C232" s="7"/>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C233" s="7"/>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C234" s="7"/>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C235" s="7"/>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C236" s="7"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C237" s="7"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C238" s="7"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C239" s="7"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C240" s="7"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C241" s="7"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C242" s="7"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C243" s="7"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C244" s="7"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C245" s="7"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C247" s="7"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" s="7"/>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C249" s="7"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C250" s="7"/>
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C251" s="7"/>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C252" s="7"/>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C253" s="7"/>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C254" s="7"/>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C255" s="7"/>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C256" s="7"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C257" s="7"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C258" s="7"/>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C259" s="7"/>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C260" s="7"/>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C261" s="7"/>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C262" s="7"/>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C263" s="7"/>
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C264" s="7"/>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C265" s="7"/>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C266" s="7"/>
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C267" s="7"/>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C268" s="7"/>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C269" s="7"/>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C270" s="7"/>
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C271" s="7"/>
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C272" s="7"/>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C273" s="7"/>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C274" s="7"/>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C275" s="7"/>
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C276" s="7"/>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C277" s="7"/>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C278" s="7"/>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C279" s="7"/>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C280" s="7"/>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C281" s="7"/>
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C282" s="7"/>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C283" s="7"/>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C284" s="7"/>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C285" s="7"/>
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C286" s="7"/>
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C287" s="7"/>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C288" s="7"/>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C289" s="7"/>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C290" s="7"/>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C291" s="7"/>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C292" s="7"/>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C293" s="7"/>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C294" s="7"/>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C295" s="7"/>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C296" s="7"/>
       <c r="E296" s="7"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C297" s="7"/>
       <c r="E297" s="7"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C298" s="7"/>
       <c r="E298" s="7"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C299" s="7"/>
       <c r="E299" s="7"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C300" s="7"/>
       <c r="E300" s="7"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C301" s="7"/>
       <c r="E301" s="7"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C302" s="7"/>
       <c r="E302" s="7"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C303" s="7"/>
       <c r="E303" s="7"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C304" s="7"/>
       <c r="E304" s="7"/>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C305" s="7"/>
       <c r="E305" s="7"/>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C306" s="7"/>
       <c r="E306" s="7"/>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C307" s="7"/>
       <c r="E307" s="7"/>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C308" s="7"/>
       <c r="E308" s="7"/>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C309" s="7"/>
       <c r="E309" s="7"/>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C310" s="7"/>
       <c r="E310" s="7"/>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C311" s="7"/>
       <c r="E311" s="7"/>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C312" s="7"/>
       <c r="E312" s="7"/>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C313" s="7"/>
       <c r="E313" s="7"/>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C314" s="7"/>
       <c r="E314" s="7"/>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C315" s="7"/>
       <c r="E315" s="7"/>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C316" s="7"/>
       <c r="E316" s="7"/>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C317" s="7"/>
       <c r="E317" s="7"/>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C318" s="7"/>
       <c r="E318" s="7"/>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C319" s="7"/>
       <c r="E319" s="7"/>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C320" s="7"/>
       <c r="E320" s="7"/>
     </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C321" s="7"/>
       <c r="E321" s="7"/>
     </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C322" s="7"/>
       <c r="E322" s="7"/>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C323" s="7"/>
       <c r="E323" s="7"/>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C324" s="7"/>
       <c r="E324" s="7"/>
     </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C325" s="7"/>
       <c r="E325" s="7"/>
     </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C326" s="7"/>
       <c r="E326" s="7"/>
     </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C327" s="7"/>
       <c r="E327" s="7"/>
     </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C328" s="7"/>
       <c r="E328" s="7"/>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C329" s="7"/>
       <c r="E329" s="7"/>
     </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C330" s="7"/>
       <c r="E330" s="7"/>
     </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C331" s="7"/>
       <c r="E331" s="7"/>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C332" s="7"/>
       <c r="E332" s="7"/>
     </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C333" s="7"/>
       <c r="E333" s="7"/>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C334" s="7"/>
       <c r="E334" s="7"/>
     </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C335" s="7"/>
       <c r="E335" s="7"/>
     </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C336" s="7"/>
       <c r="E336" s="7"/>
     </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C337" s="7"/>
       <c r="E337" s="7"/>
     </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C338" s="7"/>
       <c r="E338" s="7"/>
     </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C339" s="7"/>
       <c r="E339" s="7"/>
     </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C340" s="7"/>
       <c r="E340" s="7"/>
     </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C341" s="7"/>
       <c r="E341" s="7"/>
     </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C342" s="7"/>
       <c r="E342" s="7"/>
     </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C343" s="7"/>
       <c r="E343" s="7"/>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C344" s="7"/>
       <c r="E344" s="7"/>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C345" s="7"/>
       <c r="E345" s="7"/>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C346" s="7"/>
       <c r="E346" s="7"/>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C347" s="7"/>
       <c r="E347" s="7"/>
     </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C348" s="7"/>
       <c r="E348" s="7"/>
     </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C349" s="7"/>
       <c r="E349" s="7"/>
     </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C350" s="7"/>
       <c r="E350" s="7"/>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C351" s="7"/>
       <c r="E351" s="7"/>
     </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C352" s="7"/>
       <c r="E352" s="7"/>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C353" s="7"/>
       <c r="E353" s="7"/>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C354" s="7"/>
       <c r="E354" s="7"/>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C355" s="7"/>
       <c r="E355" s="7"/>
     </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C356" s="7"/>
       <c r="E356" s="7"/>
     </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C357" s="7"/>
       <c r="E357" s="7"/>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C358" s="7"/>
       <c r="E358" s="7"/>
     </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C359" s="7"/>
       <c r="E359" s="7"/>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C360" s="7"/>
       <c r="E360" s="7"/>
     </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C361" s="7"/>
       <c r="E361" s="7"/>
     </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C362" s="7"/>
       <c r="E362" s="7"/>
     </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C363" s="7"/>
       <c r="E363" s="7"/>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C364" s="7"/>
       <c r="E364" s="7"/>
     </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C365" s="7"/>
       <c r="E365" s="7"/>
     </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C366" s="7"/>
       <c r="E366" s="7"/>
     </row>
-    <row r="367" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C367" s="7"/>
       <c r="E367" s="7"/>
     </row>
-    <row r="368" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C368" s="7"/>
       <c r="E368" s="7"/>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C369" s="7"/>
       <c r="E369" s="7"/>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C370" s="7"/>
       <c r="E370" s="7"/>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C371" s="7"/>
       <c r="E371" s="7"/>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C372" s="7"/>
       <c r="E372" s="7"/>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C373" s="7"/>
       <c r="E373" s="7"/>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C374" s="7"/>
       <c r="E374" s="7"/>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C375" s="7"/>
       <c r="E375" s="7"/>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C376" s="7"/>
       <c r="E376" s="7"/>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C377" s="7"/>
       <c r="E377" s="7"/>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C378" s="7"/>
       <c r="E378" s="7"/>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C379" s="7"/>
       <c r="E379" s="7"/>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C380" s="7"/>
       <c r="E380" s="7"/>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C381" s="7"/>
       <c r="E381" s="7"/>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C382" s="7"/>
       <c r="E382" s="7"/>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C383" s="7"/>
       <c r="E383" s="7"/>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C384" s="7"/>
       <c r="E384" s="7"/>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C385" s="7"/>
       <c r="E385" s="7"/>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C386" s="7"/>
       <c r="E386" s="7"/>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C387" s="7"/>
       <c r="E387" s="7"/>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C388" s="7"/>
       <c r="E388" s="7"/>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C389" s="7"/>
       <c r="E389" s="7"/>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C390" s="7"/>
       <c r="E390" s="7"/>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C391" s="7"/>
       <c r="E391" s="7"/>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C392" s="7"/>
       <c r="E392" s="7"/>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C393" s="7"/>
       <c r="E393" s="7"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C394" s="7"/>
       <c r="E394" s="7"/>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C395" s="7"/>
       <c r="E395" s="7"/>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C396" s="7"/>
       <c r="E396" s="7"/>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C397" s="7"/>
       <c r="E397" s="7"/>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C398" s="7"/>
       <c r="E398" s="7"/>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C399" s="7"/>
       <c r="E399" s="7"/>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C400" s="7"/>
       <c r="E400" s="7"/>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C401" s="7"/>
       <c r="E401" s="7"/>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C402" s="7"/>
       <c r="E402" s="7"/>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C403" s="7"/>
       <c r="E403" s="7"/>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C404" s="7"/>
       <c r="E404" s="7"/>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C405" s="7"/>
       <c r="E405" s="7"/>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C406" s="7"/>
       <c r="E406" s="7"/>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C407" s="7"/>
       <c r="E407" s="7"/>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C408" s="7"/>
       <c r="E408" s="7"/>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C409" s="7"/>
       <c r="E409" s="7"/>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C410" s="7"/>
       <c r="E410" s="7"/>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C411" s="7"/>
       <c r="E411" s="7"/>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C412" s="7"/>
       <c r="E412" s="7"/>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C413" s="7"/>
       <c r="E413" s="7"/>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C414" s="7"/>
       <c r="E414" s="7"/>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C415" s="7"/>
       <c r="E415" s="7"/>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C416" s="7"/>
       <c r="E416" s="7"/>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C417" s="7"/>
       <c r="E417" s="7"/>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C418" s="7"/>
       <c r="E418" s="7"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C419" s="7"/>
       <c r="E419" s="7"/>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C420" s="7"/>
       <c r="E420" s="7"/>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C421" s="7"/>
       <c r="E421" s="7"/>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C422" s="7"/>
       <c r="E422" s="7"/>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C423" s="7"/>
       <c r="E423" s="7"/>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C424" s="7"/>
       <c r="E424" s="7"/>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C425" s="7"/>
       <c r="E425" s="7"/>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C426" s="7"/>
       <c r="E426" s="7"/>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C427" s="7"/>
       <c r="E427" s="7"/>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C428" s="7"/>
       <c r="E428" s="7"/>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C429" s="7"/>
       <c r="E429" s="7"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C430" s="7"/>
       <c r="E430" s="7"/>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C431" s="7"/>
       <c r="E431" s="7"/>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C432" s="7"/>
       <c r="E432" s="7"/>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C433" s="7"/>
       <c r="E433" s="7"/>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C434" s="7"/>
       <c r="E434" s="7"/>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C435" s="7"/>
       <c r="E435" s="7"/>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C436" s="7"/>
       <c r="E436" s="7"/>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C437" s="7"/>
       <c r="E437" s="7"/>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C438" s="7"/>
       <c r="E438" s="7"/>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C439" s="7"/>
       <c r="E439" s="7"/>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C440" s="7"/>
       <c r="E440" s="7"/>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C441" s="7"/>
       <c r="E441" s="7"/>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C442" s="7"/>
       <c r="E442" s="7"/>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C443" s="7"/>
       <c r="E443" s="7"/>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C444" s="7"/>
       <c r="E444" s="7"/>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C445" s="7"/>
       <c r="E445" s="7"/>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C446" s="7"/>
       <c r="E446" s="7"/>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C447" s="7"/>
       <c r="E447" s="7"/>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C448" s="7"/>
       <c r="E448" s="7"/>
     </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C449" s="7"/>
       <c r="E449" s="7"/>
     </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C450" s="7"/>
       <c r="E450" s="7"/>
     </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C451" s="7"/>
       <c r="E451" s="7"/>
     </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C452" s="7"/>
       <c r="E452" s="7"/>
     </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C453" s="7"/>
       <c r="E453" s="7"/>
     </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C454" s="7"/>
       <c r="E454" s="7"/>
     </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C455" s="7"/>
       <c r="E455" s="7"/>
     </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C456" s="7"/>
       <c r="E456" s="7"/>
     </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C457" s="7"/>
       <c r="E457" s="7"/>
     </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C458" s="7"/>
       <c r="E458" s="7"/>
     </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C459" s="7"/>
       <c r="E459" s="7"/>
     </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C460" s="7"/>
       <c r="E460" s="7"/>
     </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C461" s="7"/>
       <c r="E461" s="7"/>
     </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C462" s="7"/>
       <c r="E462" s="7"/>
     </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C463" s="7"/>
       <c r="E463" s="7"/>
     </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C464" s="7"/>
       <c r="E464" s="7"/>
     </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C465" s="7"/>
       <c r="E465" s="7"/>
     </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C466" s="7"/>
       <c r="E466" s="7"/>
     </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C467" s="7"/>
       <c r="E467" s="7"/>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C468" s="7"/>
       <c r="E468" s="7"/>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C469" s="7"/>
       <c r="E469" s="7"/>
     </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C470" s="7"/>
       <c r="E470" s="7"/>
     </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C471" s="7"/>
       <c r="E471" s="7"/>
     </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C472" s="7"/>
       <c r="E472" s="7"/>
     </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C473" s="7"/>
       <c r="E473" s="7"/>
     </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C474" s="7"/>
       <c r="E474" s="7"/>
     </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C475" s="7"/>
       <c r="E475" s="7"/>
     </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C476" s="7"/>
       <c r="E476" s="7"/>
     </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C477" s="7"/>
       <c r="E477" s="7"/>
     </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C478" s="7"/>
       <c r="E478" s="7"/>
     </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C479" s="7"/>
       <c r="E479" s="7"/>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C480" s="7"/>
       <c r="E480" s="7"/>
     </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C481" s="7"/>
       <c r="E481" s="7"/>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C482" s="7"/>
       <c r="E482" s="7"/>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C483" s="7"/>
       <c r="E483" s="7"/>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C484" s="7"/>
       <c r="E484" s="7"/>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C485" s="7"/>
       <c r="E485" s="7"/>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C486" s="7"/>
       <c r="E486" s="7"/>
     </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C487" s="7"/>
       <c r="E487" s="7"/>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C488" s="7"/>
       <c r="E488" s="7"/>
     </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C489" s="7"/>
       <c r="E489" s="7"/>
     </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C490" s="7"/>
       <c r="E490" s="7"/>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C491" s="7"/>
       <c r="E491" s="7"/>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C492" s="7"/>
       <c r="E492" s="7"/>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C493" s="7"/>
       <c r="E493" s="7"/>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C494" s="7"/>
       <c r="E494" s="7"/>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C495" s="7"/>
       <c r="E495" s="7"/>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C496" s="7"/>
       <c r="E496" s="7"/>
     </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C497" s="7"/>
       <c r="E497" s="7"/>
     </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C498" s="7"/>
       <c r="E498" s="7"/>
     </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C499" s="7"/>
       <c r="E499" s="7"/>
     </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C500" s="7"/>
       <c r="E500" s="7"/>
     </row>
-    <row r="501" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C501" s="7"/>
       <c r="E501" s="7"/>
     </row>
-    <row r="502" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C502" s="7"/>
       <c r="E502" s="7"/>
     </row>
-    <row r="503" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C503" s="7"/>
       <c r="E503" s="7"/>
     </row>
-    <row r="504" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C504" s="7"/>
       <c r="E504" s="7"/>
     </row>
-    <row r="505" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C505" s="7"/>
       <c r="E505" s="7"/>
     </row>
-    <row r="506" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C506" s="7"/>
       <c r="E506" s="7"/>
     </row>
-    <row r="507" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C507" s="7"/>
       <c r="E507" s="7"/>
     </row>
-    <row r="508" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C508" s="7"/>
       <c r="E508" s="7"/>
     </row>
-    <row r="509" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C509" s="7"/>
       <c r="E509" s="7"/>
     </row>
-    <row r="510" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C510" s="7"/>
       <c r="E510" s="7"/>
     </row>
-    <row r="511" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C511" s="7"/>
       <c r="E511" s="7"/>
     </row>
-    <row r="512" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C512" s="7"/>
       <c r="E512" s="7"/>
     </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C513" s="7"/>
       <c r="E513" s="7"/>
     </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C514" s="7"/>
       <c r="E514" s="7"/>
     </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C515" s="7"/>
       <c r="E515" s="7"/>
     </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C516" s="7"/>
       <c r="E516" s="7"/>
     </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C517" s="7"/>
       <c r="E517" s="7"/>
     </row>
-    <row r="518" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C518" s="7"/>
       <c r="E518" s="7"/>
     </row>
-    <row r="519" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C519" s="7"/>
       <c r="E519" s="7"/>
     </row>
-    <row r="520" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C520" s="7"/>
       <c r="E520" s="7"/>
     </row>
-    <row r="521" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C521" s="7"/>
       <c r="E521" s="7"/>
     </row>
-    <row r="522" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C522" s="7"/>
       <c r="E522" s="7"/>
     </row>
-    <row r="523" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C523" s="7"/>
       <c r="E523" s="7"/>
     </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C524" s="7"/>
       <c r="E524" s="7"/>
     </row>
-    <row r="525" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C525" s="7"/>
       <c r="E525" s="7"/>
     </row>
-    <row r="526" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C526" s="7"/>
       <c r="E526" s="7"/>
     </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C527" s="7"/>
       <c r="E527" s="7"/>
     </row>
-    <row r="528" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C528" s="7"/>
       <c r="E528" s="7"/>
     </row>
-    <row r="529" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C529" s="7"/>
       <c r="E529" s="7"/>
     </row>
-    <row r="530" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C530" s="7"/>
       <c r="E530" s="7"/>
     </row>
-    <row r="531" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C531" s="7"/>
       <c r="E531" s="7"/>
     </row>
-    <row r="532" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C532" s="7"/>
       <c r="E532" s="7"/>
     </row>
-    <row r="533" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C533" s="7"/>
       <c r="E533" s="7"/>
     </row>
-    <row r="534" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C534" s="7"/>
       <c r="E534" s="7"/>
     </row>
-    <row r="535" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C535" s="7"/>
       <c r="E535" s="7"/>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C536" s="7"/>
       <c r="E536" s="7"/>
     </row>
-    <row r="537" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C537" s="7"/>
       <c r="E537" s="7"/>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C538" s="7"/>
       <c r="E538" s="7"/>
     </row>
-    <row r="539" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C539" s="7"/>
       <c r="E539" s="7"/>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C540" s="7"/>
       <c r="E540" s="7"/>
     </row>
-    <row r="541" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C541" s="7"/>
       <c r="E541" s="7"/>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C542" s="7"/>
       <c r="E542" s="7"/>
     </row>
-    <row r="543" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C543" s="7"/>
       <c r="E543" s="7"/>
     </row>
-    <row r="544" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C544" s="7"/>
       <c r="E544" s="7"/>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C545" s="7"/>
       <c r="E545" s="7"/>
     </row>
-    <row r="546" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C546" s="7"/>
       <c r="E546" s="7"/>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C547" s="7"/>
       <c r="E547" s="7"/>
     </row>
-    <row r="548" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C548" s="7"/>
       <c r="E548" s="7"/>
     </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C549" s="7"/>
       <c r="E549" s="7"/>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C550" s="7"/>
       <c r="E550" s="7"/>
     </row>
-    <row r="551" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C551" s="7"/>
       <c r="E551" s="7"/>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C552" s="7"/>
       <c r="E552" s="7"/>
     </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C553" s="7"/>
       <c r="E553" s="7"/>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C554" s="7"/>
       <c r="E554" s="7"/>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C555" s="7"/>
       <c r="E555" s="7"/>
     </row>
-    <row r="556" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C556" s="7"/>
       <c r="E556" s="7"/>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C557" s="7"/>
       <c r="E557" s="7"/>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C558" s="7"/>
       <c r="E558" s="7"/>
     </row>
-    <row r="559" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C559" s="7"/>
       <c r="E559" s="7"/>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C560" s="7"/>
       <c r="E560" s="7"/>
     </row>
-    <row r="561" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C561" s="7"/>
       <c r="E561" s="7"/>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C562" s="7"/>
       <c r="E562" s="7"/>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C563" s="7"/>
       <c r="E563" s="7"/>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C564" s="7"/>
       <c r="E564" s="7"/>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C565" s="7"/>
       <c r="E565" s="7"/>
     </row>
-    <row r="566" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C566" s="7"/>
       <c r="E566" s="7"/>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C567" s="7"/>
       <c r="E567" s="7"/>
     </row>
-    <row r="568" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C568" s="7"/>
       <c r="E568" s="7"/>
     </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C569" s="7"/>
       <c r="E569" s="7"/>
     </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C570" s="7"/>
       <c r="E570" s="7"/>
     </row>
-    <row r="571" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C571" s="7"/>
       <c r="E571" s="7"/>
     </row>
-    <row r="572" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C572" s="7"/>
       <c r="E572" s="7"/>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C573" s="7"/>
       <c r="E573" s="7"/>
     </row>
-    <row r="574" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C574" s="7"/>
       <c r="E574" s="7"/>
     </row>
-    <row r="575" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C575" s="7"/>
       <c r="E575" s="7"/>
     </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C576" s="7"/>
       <c r="E576" s="7"/>
     </row>
-    <row r="577" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C577" s="7"/>
       <c r="E577" s="7"/>
     </row>
-    <row r="578" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C578" s="7"/>
       <c r="E578" s="7"/>
     </row>
-    <row r="579" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C579" s="7"/>
       <c r="E579" s="7"/>
     </row>
-    <row r="580" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C580" s="7"/>
       <c r="E580" s="7"/>
     </row>
-    <row r="581" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C581" s="7"/>
       <c r="E581" s="7"/>
     </row>
-    <row r="582" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C582" s="7"/>
       <c r="E582" s="7"/>
     </row>
-    <row r="583" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C583" s="7"/>
       <c r="E583" s="7"/>
     </row>
-    <row r="584" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C584" s="7"/>
       <c r="E584" s="7"/>
     </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C585" s="7"/>
       <c r="E585" s="7"/>
     </row>
-    <row r="586" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C586" s="7"/>
       <c r="E586" s="7"/>
     </row>
-    <row r="587" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C587" s="7"/>
       <c r="E587" s="7"/>
     </row>
-    <row r="588" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C588" s="7"/>
       <c r="E588" s="7"/>
     </row>
-    <row r="589" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C589" s="7"/>
       <c r="E589" s="7"/>
     </row>
-    <row r="590" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C590" s="7"/>
       <c r="E590" s="7"/>
     </row>
-    <row r="591" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C591" s="7"/>
       <c r="E591" s="7"/>
     </row>
-    <row r="592" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C592" s="7"/>
       <c r="E592" s="7"/>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C593" s="7"/>
       <c r="E593" s="7"/>
     </row>
-    <row r="594" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C594" s="7"/>
       <c r="E594" s="7"/>
     </row>
-    <row r="595" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C595" s="7"/>
       <c r="E595" s="7"/>
     </row>
-    <row r="596" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C596" s="7"/>
       <c r="E596" s="7"/>
     </row>
-    <row r="597" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C597" s="7"/>
       <c r="E597" s="7"/>
     </row>
-    <row r="598" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C598" s="7"/>
       <c r="E598" s="7"/>
     </row>
-    <row r="599" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C599" s="7"/>
       <c r="E599" s="7"/>
     </row>
-    <row r="600" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C600" s="7"/>
       <c r="E600" s="7"/>
     </row>
-    <row r="601" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C601" s="7"/>
       <c r="E601" s="7"/>
     </row>
-    <row r="602" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C602" s="7"/>
       <c r="E602" s="7"/>
     </row>
-    <row r="603" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C603" s="7"/>
       <c r="E603" s="7"/>
     </row>
-    <row r="604" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C604" s="7"/>
       <c r="E604" s="7"/>
     </row>
+    <row r="605" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C605" s="7"/>
+      <c r="E605" s="7"/>
+    </row>
+    <row r="606" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C606" s="7"/>
+      <c r="E606" s="7"/>
+    </row>
+    <row r="607" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C607" s="7"/>
+      <c r="E607" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E604 C2:C604">
+  <conditionalFormatting sqref="E2:E607 C2:C607">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3683,7 +3930,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F604 D2:D604">
+  <conditionalFormatting sqref="F2:F607 D2:D607">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3692,7 +3939,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 C33:C604 E2:E604" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 E2:E607 C33:C607" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason Bausenwein\Desktop\School\2023 Spring Semester\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DADB51-9220-4392-9695-0A1E8720DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693622A-EF5C-46F0-A2CD-63904B8E216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
   <si>
     <t>Instructions</t>
   </si>
@@ -63,12 +63,6 @@
 Submit this file per the instructions specified for the sprint submissions and cross-team testing.</t>
   </si>
   <si>
-    <t>As a Customer/Owner, I want to be able to view this page first and log in before being sent to my shopping cart and the catalog OR accessing admin tools depending on privileges.</t>
-  </si>
-  <si>
-    <t>**Given** I am in a browser **when** I submit a GET request to http://localhost:8080/login **then** I expect to see the log in page.</t>
-  </si>
-  <si>
     <t>**Given** I press the submit button **when** I have an admins login information in the input boxes **then** I expect to be redirected to the inventory management dashboard</t>
   </si>
   <si>
@@ -93,27 +87,12 @@
     <t>**Given** I AM LOGGED IN **when** I LOG OUT **then** I EXPECT MY DATA TO  NO LONGER PERSIST</t>
   </si>
   <si>
-    <t>**Given** I HAVE AN ACCOUNT **when** I LOG IN **then** MY DATA SHOULD APPEAR ON SCREEN</t>
-  </si>
-  <si>
     <t>As an owner I want to create be able to create a product so that my customers are able to buy it.</t>
   </si>
   <si>
-    <t>**Given** I am an owner **when** I go to the product creation page (http://localhost:4200/inventory/product) **then** I expect to see a form that I can fill out that allows me to input all of the necessary information (i.e. name, size, etc -- NOT ID)</t>
-  </si>
-  <si>
-    <t>**Given** I am a buyer **when** I go to the product creation page (http://localhost:4200/inventory/product) **then** I expect to see an error pop up and be redirected to the login page.</t>
-  </si>
-  <si>
     <t>As an OWNER I want to be able to modify products so that I can change the price, quantity available, name, etc of my items.</t>
   </si>
   <si>
-    <t>**Given** I am a buyer **when** I go to the inventory management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see an error pop up and be redirected to the login page.</t>
-  </si>
-  <si>
-    <t>**Given** I am an owner **when** I hit the submit button on a product management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see a success message.</t>
-  </si>
-  <si>
     <t>As an OWNER I want to SEE PRODUCTS ON THE INVENTORY MANAGEMENT PAGE so that I CAN SELECT THEM TO MODIFY.</t>
   </si>
   <si>
@@ -144,12 +123,6 @@
     <t>As a BUYER I want to HAVE A PROFILE PAGE so that I CAN SAVE MY PAYMENT AND SHIPPING INFORMATION.</t>
   </si>
   <si>
-    <t>**Given** I am an owner or not logged in **when** I attempt to access my profile page **then** I expect to be redirected to the login screen and see an error</t>
-  </si>
-  <si>
-    <t>**Given** I am a buyer **when** I attempt to access my profile page **then** I expect to see a screen where I can save my payment and shipping information along with a save button and a clear button</t>
-  </si>
-  <si>
     <t>As a CUSTOMER I want to SEE A RECEIPT OF THE ITEMS I PURCHASED so that I CAN MAKE SURE I BOUGHT EVERYTHING I WANT</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
     <t>**Given** I am an owner **when** I click the remove button **then** I expect the product to be deleted and to see a success notification if successful or an error notification if not</t>
   </si>
   <si>
-    <t>**Given** I am an owner **when** I go to the product management page (http://localhost:4200/inventory/product/{id}) **then** I expect to see all of the fields I can modify and a save button</t>
-  </si>
-  <si>
     <t>As an BUYER I want to SEE PRODUCTS ON THE CATALOG PAGE so that I ADD THEM MY SHOPPING CART.</t>
   </si>
   <si>
@@ -225,18 +195,9 @@
     <t>Mason Bausenwein; March 18th</t>
   </si>
   <si>
-    <t>**Given** I am logged in as a buyer and I am on a browser **when** I click the shopping cart button or submit a get request to http://localhost:8080/cart **then** I expect to see my shopping cart (items - name, price, quantity in cart, cart - price total).</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in as a owner or not logged in **when** I go to http://localhost:8080/cart **then** I expect to see an error pop up and be redirected to the login page</t>
-  </si>
-  <si>
     <t>**Given** I am logged in as a buyer **when** I click the remove button **then** I expect the correct amount of the item corresponding to the remove button to be removed</t>
   </si>
   <si>
-    <t>**Given** I am logged in as a buyer **when** I click the back button **then** I expect to be directed back to https://localhost:8080/catalog or http://localhost:8080/catalog/:id (use location.back -- need to inject Location in the constructor)</t>
-  </si>
-  <si>
     <t>**Given** I am logged in as a buyer and have items in my cart **when** I click the clear cart button **then** I expect my cart to be cleared</t>
   </si>
   <si>
@@ -273,18 +234,9 @@
     <t>As an OWNER I want the catalog/inventory management pages to look nice and be easy to use so that I and my customers do not get confused and have a nice experience.</t>
   </si>
   <si>
-    <t>**Given** I am logged in as a buyer **when** I go to the catalog page **then** I expect to see all of the items listed in boxes with drop shadows. (The boxes should contain the following: name of the duck, price of the duck, and quantity available. There should also be a selector that allows them to add as many ducks to the cart as they like and a view item button)</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in as a buyer **when** I am on the catalog page **then** I expect to see a go-to cart button (use angular material buttons)</t>
-  </si>
-  <si>
     <t>**Given** I am logged in as an owner **when** I go to the inventory management page **then** I expect to see all of the items listed in boxes with drop shadows. (The boxes should contain the following: name of the duck, price of the duck, and quantity available. There should also be a modify button and a remove button)</t>
   </si>
   <si>
-    <t>**Given** I am on the inventory management page **when** I click the modify item button on an item **then** I expect to be taken to the modify product page (make this a modal)</t>
-  </si>
-  <si>
     <t>**Given** I am logged in **when** I am on the catalog/inventory management page **then** I expect all of the items to have pictures that reflect their outfit/color/size properties</t>
   </si>
   <si>
@@ -321,9 +273,6 @@
     <t>As a BUYER I want to HAVE A CUSTOMIZABLE DUCK PAGE so that I CAN CUSTOMIZE MY OWN DUCK AND ADD IT TO MY SHOPPING CART.</t>
   </si>
   <si>
-    <t>**Given** I am a buyer **when** I attempt to access the customize page **then** I expect to see a screen where I can customize my own duck along with a button to add to my cart</t>
-  </si>
-  <si>
     <t>**Given** I am a buyer **when** create my own duck **then** I expect to customize features of my duck such as its name, size, color, and outfit which includes its hat, hand item, and jewelry.</t>
   </si>
   <si>
@@ -331,6 +280,60 @@
   </si>
   <si>
     <t>Mason Bausenwein; April 3rd; This acceptance criteria was not defined during sprint 2, but is being marked as failing for completion of this document</t>
+  </si>
+  <si>
+    <t>As a Customer/Owner, I want to be able to view the login page first and log in before being sent to my shopping cart and the catalog OR accessing admin tools depending on privileges.</t>
+  </si>
+  <si>
+    <t>**Given** I am in a browser **when** I submit a go to the website **then** I expect to see the log in page.</t>
+  </si>
+  <si>
+    <t>**Given** I am an owner **when** I hit the submit button on a product management page  **then** I expect to see a success message.</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I go to the inventory management page  **then** I expect to see an error pop up and be redirected to the login page.</t>
+  </si>
+  <si>
+    <t>**Given** I am an owner **when** I go to the product management page  **then** I expect to see all of the fields I can modify and a save button</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer and I am on a browser **when** I click the shopping cart button **then** I expect to see my shopping cart (items - name, price, quantity in cart, cart - price total).</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as an owner or not logged in **when** I go to the cart page **then** I expect to see an error pop up and be redirected to the login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I am logged in as a buyer **when** I click the back button **then** I expect to be directed back to the previous page I was on </t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th. The product view page was removed because it was deemed no longer necessary after the duck images were implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mason Bausenwein; April 4th. In Sprint 3, a quantity input was added in place of the view detail to allow for a variable number of ducks to be added to cart from the catalog page </t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I go to the catalog page **then** I expect to see all of the items listed in boxes with drop shadows. (The boxes should contain the following: name of the duck, price of the duck, and quantity available. There should also be a selector that allows them to add as many ducks to the cart as they like)</t>
+  </si>
+  <si>
+    <t>**Given** I am on the inventory management page **when** I click the modify item button on an item **then** I expect the modify product modal to open</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in as a buyer **when** I am on the catalog page **then** I expect to see a go-to cart button</t>
+  </si>
+  <si>
+    <t>**Given** I HAVE AN ACCOUNT **when** I LOG IN **then** MY ACCOUNT SHOULD BE STORED (i.e. shopping cart should be loaded)</t>
+  </si>
+  <si>
+    <t>**Given** I am an owner **when** I go to the product creation page **then** I expect to see a form that I can fill out that allows me to input all of the necessary information (i.e. name, size, etc -- NOT ID)</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I go to the product creation page  **then** I expect to see an error pop up and be redirected to the login page.</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th. This is no longer a page but rather a modal</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I attempt to access the customize modal **then** I expect to see a screen where I can customize my own duck along with a button to add to my cart</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,11 +865,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F607"/>
+  <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,870 +905,914 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7"/>
+      <c r="F13" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>41</v>
-      </c>
+    <row r="43" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>92</v>
+    <row r="46" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
-        <v>94</v>
+    <row r="48" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>85</v>
+    <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
+    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
+    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
+    <row r="69" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,9 +3967,21 @@
       <c r="C607" s="7"/>
       <c r="E607" s="7"/>
     </row>
+    <row r="608" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C608" s="7"/>
+      <c r="E608" s="7"/>
+    </row>
+    <row r="609" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C609" s="7"/>
+      <c r="E609" s="7"/>
+    </row>
+    <row r="610" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C610" s="7"/>
+      <c r="E610" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E607 C2:C607">
+  <conditionalFormatting sqref="E2:E610 C2:C610">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3930,7 +3989,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F607 D2:D607">
+  <conditionalFormatting sqref="D2:D610 F2:F610">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3939,7 +3998,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 E2:E607 C33:C607" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 E2:E610 C33:C610" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/2225-swen-261-06-h-quackers.xlsx
+++ b/etc/2225-swen-261-06-h-quackers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason Bausenwein\Desktop\School\2023 Spring Semester\SWEN-261\team-project-2225-swen-261-06-h-quackers\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693622A-EF5C-46F0-A2CD-63904B8E216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270C0D5-714A-42A2-82DA-506F1E0C95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22670" yWindow="-740" windowWidth="22780" windowHeight="14540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="108">
   <si>
     <t>Instructions</t>
   </si>
@@ -66,12 +66,6 @@
     <t>**Given** I press the submit button **when** I have an admins login information in the input boxes **then** I expect to be redirected to the inventory management dashboard</t>
   </si>
   <si>
-    <t>**Given** I press the submit button **when** I have anything that is not admin entered in the username box **then** I expect to be redirected to the product view dashboard</t>
-  </si>
-  <si>
-    <t>**Given **I press the submit button **when** account information is entered **then** I expect the account information to stay in the session (basically, have account information present on the page)</t>
-  </si>
-  <si>
     <t>**Given **I press the register button **when **account information is entered and doesn't exist already, **then **I expect the account to be registered to the database and have a feedback message appear saying account was created.</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>**Given** I click the reset password button **when** I have entered a username for an nonexistant account **then** I expect to receive an error snackbar saying account does not exist</t>
   </si>
   <si>
-    <t>**Given** I am a buyer **when** I attempt to access my profile page **then** I expect to see a screen where I can save my payment and shipping information along with a save button</t>
-  </si>
-  <si>
     <t>**Given** I am on the profile page **when** I attempt to click the change payment information button **then** I expect to see a screen where I can modify my payment information</t>
   </si>
   <si>
@@ -321,19 +312,49 @@
     <t>**Given** I am logged in as a buyer **when** I am on the catalog page **then** I expect to see a go-to cart button</t>
   </si>
   <si>
-    <t>**Given** I HAVE AN ACCOUNT **when** I LOG IN **then** MY ACCOUNT SHOULD BE STORED (i.e. shopping cart should be loaded)</t>
-  </si>
-  <si>
     <t>**Given** I am an owner **when** I go to the product creation page **then** I expect to see a form that I can fill out that allows me to input all of the necessary information (i.e. name, size, etc -- NOT ID)</t>
   </si>
   <si>
-    <t>**Given** I am a buyer **when** I go to the product creation page  **then** I expect to see an error pop up and be redirected to the login page.</t>
-  </si>
-  <si>
-    <t>Mason Bausenwein; April 4th. This is no longer a page but rather a modal</t>
-  </si>
-  <si>
     <t>**Given** I am a buyer **when** I attempt to access the customize modal **then** I expect to see a screen where I can customize my own duck along with a button to add to my cart</t>
+  </si>
+  <si>
+    <t>**Given** I press the submit button **when** I am logging in with a valid account that does not have the username admin **then** I expect to be redirected to the product view dashboard</t>
+  </si>
+  <si>
+    <t>**Given **I press the submit button **when** account information is entered **then** I expect the account information to stay in the session (basically, I stay logged in when switching pages)</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; Password must be considered strong</t>
+  </si>
+  <si>
+    <t>**Given** I HAVE AN ACCOUNT **when** I LOG IN **then** MY ACCOUNT SHOULD BE STORED (i.e. shopping cart page should show my cart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I am a buyer **when** I go to the product creation page  **then** I expect to see an error pop up and be redirected to the login page. </t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; Not even possible for buyers to even access this page anymore because it is a modal</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; This is no longer a page but rather a modal</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; There is now a quantity selector so multiple items can be added rather than just one. However, 1 is the default value</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; Search is case sensitive</t>
+  </si>
+  <si>
+    <t>**Given** I am a buyer **when** I attempt to access my profile page **then** I expect to see a screen where I can change my payment and shipping information along with a close button</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; Realistically, it is not possible for this to actually occur due to prior validation when the shopping cart page loads. However, it does work</t>
+  </si>
+  <si>
+    <t>Mason Bausenwein; April 4th; This is now a modal and not a page</t>
   </si>
 </sst>
 </file>
@@ -370,12 +391,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -408,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,6 +463,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,11 +895,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F610"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B60" sqref="B60"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,18 +935,23 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -924,938 +959,1169 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
       <c r="E80" s="7"/>
     </row>
@@ -3959,29 +4225,9 @@
       <c r="C605" s="7"/>
       <c r="E605" s="7"/>
     </row>
-    <row r="606" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C606" s="7"/>
-      <c r="E606" s="7"/>
-    </row>
-    <row r="607" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C607" s="7"/>
-      <c r="E607" s="7"/>
-    </row>
-    <row r="608" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C608" s="7"/>
-      <c r="E608" s="7"/>
-    </row>
-    <row r="609" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C609" s="7"/>
-      <c r="E609" s="7"/>
-    </row>
-    <row r="610" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C610" s="7"/>
-      <c r="E610" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E610 C2:C610">
+  <conditionalFormatting sqref="C2:C605 E2:E605">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3989,7 +4235,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D610 F2:F610">
+  <conditionalFormatting sqref="D2:D605 F2:F605">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3998,7 +4244,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 E2:E610 C33:C610" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31 E2:E605 C33:C605" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
